--- a/2026年上半年减肥记录每一天.xlsx
+++ b/2026年上半年减肥记录每一天.xlsx
@@ -28,42 +28,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>ThinkPad</author>
-  </authors>
-  <commentList>
-    <comment ref="G7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>ThinkPad:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-晚上吃了烧烤
-韭菜盒子
-酸菜饼</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>时间</t>
   </si>
@@ -119,6 +85,25 @@
   <si>
     <t>晚上</t>
   </si>
+  <si>
+    <t>白菜 + 荞麦面 + 鸡蛋2</t>
+  </si>
+  <si>
+    <t>白馒头1 + 鸡蛋2 + 西红柿2</t>
+  </si>
+  <si>
+    <t>鸡蛋2</t>
+  </si>
+  <si>
+    <t>白馒头1</t>
+  </si>
+  <si>
+    <t>西红柿2</t>
+  </si>
+  <si>
+    <t>目前82.5kg
+本周争取到82.5kg</t>
+  </si>
 </sst>
 </file>
 
@@ -130,7 +115,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -294,17 +279,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1092,7 +1066,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="7"/>
@@ -1179,7 +1153,9 @@
       <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -1187,18 +1163,36 @@
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="A5" s="3">
+        <v>46031</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -1207,13 +1201,15 @@
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="5"/>
+      <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8">
@@ -1299,10 +1295,8 @@
     <row r="16" spans="1:8">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="1"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="1"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
     </row>
@@ -1329,7 +1323,6 @@
     <row r="19" spans="1:8">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
-      <c r="C19" s="1"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -3450,7 +3443,6 @@
       <c r="A232" s="4"/>
       <c r="B232" s="4"/>
       <c r="C232" s="5"/>
-      <c r="D232" s="1"/>
       <c r="E232" s="4"/>
       <c r="F232" s="4"/>
       <c r="G232" s="4"/>
@@ -3656,7 +3648,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
